--- a/Config/Habitats.xlsx
+++ b/Config/Habitats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\毕业设计\rescue-endangered\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F318611-06ED-4013-A07F-7C71AFF8D101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC76AFB-E1D8-46A2-A53C-007DDDFA3870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="495" windowWidth="16260" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16215" yWindow="495" windowWidth="16260" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Habitat" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大熊猫栖息地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,26 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SceneName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Habitat_Panda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Habitat_GoldenMonkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Habitat_WhiteFlagDolphin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsAvailable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +85,14 @@
   </si>
   <si>
     <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +442,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,7 +450,7 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
@@ -482,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -499,10 +483,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -516,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -527,17 +511,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("tex_habitats_",B4,".png")</f>
         <v>tex_habitats_大熊猫栖息地.png</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -545,17 +529,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ref="C5:C6" si="0">CONCATENATE("tex_habitats_",B5,".png")</f>
         <v>tex_habitats_金丝猴栖息地.png</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,17 +547,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tex_habitats_白鳍豚栖息地.png</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
+      <c r="D6" s="3">
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/Config/Habitats.xlsx
+++ b/Config/Habitats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\毕业设计\rescue-endangered\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC76AFB-E1D8-46A2-A53C-007DDDFA3870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA42A50A-F81C-4AEF-91E6-337532120761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16215" yWindow="495" windowWidth="16260" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Habitat" sheetId="4" r:id="rId1"/>
@@ -56,18 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大熊猫栖息地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丝猴栖息地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白鳍豚栖息地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsAvailable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +81,18 @@
   </si>
   <si>
     <t>场景 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -500,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -511,17 +511,17 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>CONCATENATE("tex_habitats_",B4,".png")</f>
-        <v>tex_habitats_大熊猫栖息地.png</v>
+        <v>tex_habitats_山谷.png</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -529,17 +529,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ref="C5:C6" si="0">CONCATENATE("tex_habitats_",B5,".png")</f>
-        <v>tex_habitats_金丝猴栖息地.png</v>
+        <v>tex_habitats_密林.png</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,17 +547,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_habitats_白鳍豚栖息地.png</v>
+        <v>tex_habitats_沼泽.png</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/Config/Habitats.xlsx
+++ b/Config/Habitats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA42A50A-F81C-4AEF-91E6-337532120761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E86C19-391D-4377-96B4-B5D09DD9C6FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,23 +447,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,8 +479,11 @@
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -488,8 +499,11 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -505,8 +519,11 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -523,8 +540,12 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="str">
+        <f>CONCATENATE("tex_habitats_minimap_",B4,".png")</f>
+        <v>tex_habitats_minimap_山谷.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -541,8 +562,12 @@
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="str">
+        <f t="shared" ref="F5:F6" si="1">CONCATENATE("tex_habitats_minimap_",B5,".png")</f>
+        <v>tex_habitats_minimap_密林.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -559,44 +584,48 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>tex_habitats_minimap_沼泽.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>

--- a/Config/Habitats.xlsx
+++ b/Config/Habitats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E86C19-391D-4377-96B4-B5D09DD9C6FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A06BB8-0166-4DFE-93B4-810C297EB939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsAvailable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,11 +89,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Minimap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小地图</t>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小地图图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinimapImg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +451,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,36 +472,36 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -508,19 +509,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -528,21 +529,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>CONCATENATE("tex_habitats_",B4,".png")</f>
-        <v>tex_habitats_山谷.png</v>
+        <f>CONCATENATE("tex_habitat_",B4,".png")</f>
+        <v>tex_habitat_山谷.png</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="str">
-        <f>CONCATENATE("tex_habitats_minimap_",B4,".png")</f>
-        <v>tex_habitats_minimap_山谷.png</v>
+        <f>CONCATENATE("tex_habitat_minimap_",B4,".png")</f>
+        <v>tex_habitat_minimap_山谷.png</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -550,21 +551,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C6" si="0">CONCATENATE("tex_habitats_",B5,".png")</f>
-        <v>tex_habitats_密林.png</v>
+        <f t="shared" ref="C5:C6" si="0">CONCATENATE("tex_habitat_",B5,".png")</f>
+        <v>tex_habitat_密林.png</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F6" si="1">CONCATENATE("tex_habitats_minimap_",B5,".png")</f>
-        <v>tex_habitats_minimap_密林.png</v>
+        <f t="shared" ref="F5:F6" si="1">CONCATENATE("tex_habitat_minimap_",B5,".png")</f>
+        <v>tex_habitat_minimap_密林.png</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -572,21 +573,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_habitats_沼泽.png</v>
+        <v>tex_habitat_沼泽.png</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tex_habitats_minimap_沼泽.png</v>
+        <v>tex_habitat_minimap_沼泽.png</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">

--- a/Config/Habitats.xlsx
+++ b/Config/Habitats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A06BB8-0166-4DFE-93B4-810C297EB939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E0CD2-43CE-4C6A-A87A-BE4559D0C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,26 @@
   </si>
   <si>
     <t>MinimapImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreResourceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,23 +468,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="3" max="3" width="21.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,19 +493,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -495,16 +519,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -512,151 +539,163 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f>CONCATENATE("tex_habitat_",B4,".png")</f>
-        <v>tex_habitat_山谷.png</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>CONCATENATE("tex_habitat_",C4,".png")</f>
+        <v>tex_habitat_valley.png</v>
+      </c>
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="str">
-        <f>CONCATENATE("tex_habitat_minimap_",B4,".png")</f>
-        <v>tex_habitat_minimap_山谷.png</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="str">
+        <f>CONCATENATE("tex_minimap_",C4,".png")</f>
+        <v>tex_minimap_valley.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C6" si="0">CONCATENATE("tex_habitat_",B5,".png")</f>
-        <v>tex_habitat_密林.png</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" ref="D5:D6" si="0">CONCATENATE("tex_habitat_",C5,".png")</f>
+        <v>tex_habitat_forest.png</v>
+      </c>
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="str">
-        <f t="shared" ref="F5:F6" si="1">CONCATENATE("tex_habitat_minimap_",B5,".png")</f>
-        <v>tex_habitat_minimap_密林.png</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="str">
+        <f t="shared" ref="G5:G6" si="1">CONCATENATE("tex_minimap_",C5,".png")</f>
+        <v>tex_minimap_forest.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_habitat_沼泽.png</v>
-      </c>
-      <c r="D6" s="3">
+        <v>tex_habitat_swamp.png</v>
+      </c>
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>tex_habitat_minimap_沼泽.png</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
+        <v>tex_minimap_swamp.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Config/Habitats.xlsx
+++ b/Config/Habitats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E0CD2-43CE-4C6A-A87A-BE4559D0C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4069F8E-0561-4CEB-AA88-1D9EB60A034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
         <v>tex_habitat_valley.png</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
@@ -594,7 +594,7 @@
         <v>tex_habitat_forest.png</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>10</v>
@@ -619,7 +619,7 @@
         <v>tex_habitat_swamp.png</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>

--- a/Config/Habitats.xlsx
+++ b/Config/Habitats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4069F8E-0561-4CEB-AA88-1D9EB60A034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA5B63-EB0A-4C28-B65C-917A54F15E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SceneID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沼泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +106,6 @@
   </si>
   <si>
     <t>forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,7 +459,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,19 +481,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -539,19 +527,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -559,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>CONCATENATE("tex_habitat_",C4,".png")</f>
@@ -584,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ref="D5:D6" si="0">CONCATENATE("tex_habitat_",C5,".png")</f>
@@ -597,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G6" si="1">CONCATENATE("tex_minimap_",C5,".png")</f>
@@ -605,29 +593,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_habitat_swamp.png</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>tex_minimap_swamp.png</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7" s="3"/>
